--- a/mavenproject/src/main/resources/excelRead/Read.xlsx
+++ b/mavenproject/src/main/resources/excelRead/Read.xlsx
@@ -4,15 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18744" windowHeight="8124"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="signin tc expected result" sheetId="1" r:id="rId1"/>
+    <sheet name="data provider" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>testname</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,12 +360,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -366,7 +388,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
